--- a/NformTester/NformTester/Keywordscripts/600.20.20.30_ConfigureActionWriteDataActionPermission.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.30_ConfigureActionWriteDataActionPermission.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="844">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3670,106 +3670,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">;Edit user group and add new user </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configure</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Power Users"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Add new user </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormUserProperties</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetTextValue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Nform"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Nform G2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Nform Testing"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"nform"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nformg2@testing.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nform@testing.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"N/A"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"12365486"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9854573256"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">;Edit user group and add new user </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Configure</t>
+    <t>"All Devices"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
+    <t>OK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;login with new user and verify the write data action permission </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Nform"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"nform"</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Power Users"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Add new user </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormUserProperties</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SetTextValue</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Nform"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Nform G2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Nform Testing"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"nform"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nformg2@testing.com</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nform@testing.com</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"N/A"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"12365486"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"9854573256"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"All Devices"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;login with new user and verify the write data action permission </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Nform"</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>"nform"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3803,6 +3799,14 @@
   </si>
   <si>
     <t>"localhost"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4061,21 +4065,7 @@
     <cellStyle name="常规 2 4" xfId="4"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4802,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4935,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>809</v>
+        <v>842</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -5025,7 +5015,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -5054,7 +5044,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>2</v>
@@ -5108,7 +5098,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>241</v>
@@ -5120,7 +5110,7 @@
         <v>56</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -5137,7 +5127,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>241</v>
@@ -5224,7 +5214,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="20"/>
@@ -5247,7 +5237,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>241</v>
@@ -5279,16 +5269,16 @@
         <v>785</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>256</v>
       </c>
       <c r="G16" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>816</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>817</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5310,16 +5300,16 @@
         <v>785</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>258</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -5341,16 +5331,16 @@
         <v>785</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -5372,16 +5362,16 @@
         <v>785</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -5405,16 +5395,16 @@
         <v>785</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>257</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -5436,16 +5426,16 @@
         <v>785</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>259</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -5467,16 +5457,16 @@
         <v>785</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>260</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -5496,16 +5486,16 @@
         <v>785</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>261</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5525,16 +5515,16 @@
         <v>785</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>173</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -5554,16 +5544,16 @@
         <v>785</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>262</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -5578,10 +5568,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>263</v>
@@ -5590,7 +5580,7 @@
         <v>13</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -5607,7 +5597,7 @@
         <v>785</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>264</v>
@@ -5616,7 +5606,7 @@
         <v>13</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -5633,7 +5623,7 @@
         <v>785</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>265</v>
@@ -5657,7 +5647,7 @@
         <v>785</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>267</v>
@@ -5681,7 +5671,7 @@
         <v>785</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>268</v>
@@ -5705,7 +5695,7 @@
         <v>785</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>269</v>
@@ -5729,13 +5719,13 @@
         <v>785</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F32" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>828</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>829</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="5"/>
@@ -5750,7 +5740,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>241</v>
@@ -5774,7 +5764,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="20"/>
@@ -5798,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>2</v>
@@ -5850,10 +5840,10 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>831</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>832</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>783</v>
@@ -5868,7 +5858,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>19</v>
@@ -5892,7 +5882,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>19</v>
@@ -5916,7 +5906,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>306</v>
@@ -5940,7 +5930,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>310</v>
@@ -5966,7 +5956,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>310</v>
@@ -5992,7 +5982,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>310</v>
@@ -6016,7 +6006,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>316</v>
@@ -6028,10 +6018,10 @@
         <v>7</v>
       </c>
       <c r="H44" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="I44" s="11" t="s">
         <v>834</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>835</v>
       </c>
       <c r="J44" s="5" t="b">
         <v>0</v>
@@ -6046,7 +6036,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>316</v>
@@ -6070,7 +6060,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>310</v>
@@ -6094,7 +6084,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>306</v>
@@ -6140,7 +6130,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="5"/>
@@ -6164,7 +6154,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>2</v>
@@ -6206,23 +6196,23 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>838</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>839</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>764</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="J52" s="5" t="s">
         <v>841</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>842</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -6234,7 +6224,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>197</v>
@@ -6264,7 +6254,7 @@
         <v>19</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>2</v>
@@ -6306,7 +6296,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>241</v>
@@ -6318,7 +6308,7 @@
         <v>56</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -6332,7 +6322,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>241</v>
@@ -6404,7 +6394,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>241</v>
@@ -6416,7 +6406,7 @@
         <v>56</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -6430,7 +6420,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>241</v>
@@ -6454,7 +6444,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>241</v>
@@ -7703,10 +7693,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N72">
-    <cfRule type="cellIs" dxfId="3" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="36" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
